--- a/Code/Results/Cases/Case_3_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_145/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.779195367579518</v>
+        <v>2.013391040896522</v>
       </c>
       <c r="C2">
-        <v>1.010150009431641</v>
+        <v>0.4545716620954181</v>
       </c>
       <c r="D2">
-        <v>0.009026117987076976</v>
+        <v>0.0548242614504082</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.887429256937139</v>
+        <v>3.224396755779395</v>
       </c>
       <c r="G2">
-        <v>0.0007988918328004982</v>
+        <v>0.002543731212099035</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1059296383583614</v>
+        <v>0.1999677489458449</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9237235037088212</v>
+        <v>0.6547522193246067</v>
       </c>
       <c r="N2">
-        <v>1.254427430940027</v>
+        <v>2.13922535829785</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.271058659442758</v>
+        <v>1.894004493856016</v>
       </c>
       <c r="C3">
-        <v>0.8703679204346315</v>
+        <v>0.4211297235562483</v>
       </c>
       <c r="D3">
-        <v>0.008408046006989855</v>
+        <v>0.05472724908364168</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.630896507905064</v>
+        <v>3.180009302102007</v>
       </c>
       <c r="G3">
-        <v>0.0008088691083471223</v>
+        <v>0.002549823428066786</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1002769735390316</v>
+        <v>0.199772679028726</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8052120177548403</v>
+        <v>0.6291005810636818</v>
       </c>
       <c r="N3">
-        <v>1.283087263279754</v>
+        <v>2.151440602265737</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.965532858667814</v>
+        <v>1.821991698144018</v>
       </c>
       <c r="C4">
-        <v>0.786305643535826</v>
+        <v>0.4008820743332251</v>
       </c>
       <c r="D4">
-        <v>0.008047327248771774</v>
+        <v>0.05467032729818411</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.480087664086952</v>
+        <v>3.154611315949396</v>
       </c>
       <c r="G4">
-        <v>0.0008151413883498906</v>
+        <v>0.002553758468885161</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09699795673446232</v>
+        <v>0.1997365924836103</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7340595508462471</v>
+        <v>0.6137668284747875</v>
       </c>
       <c r="N4">
-        <v>1.302838383526719</v>
+        <v>2.159624172293071</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.842435006365179</v>
+        <v>1.792967871958126</v>
       </c>
       <c r="C5">
-        <v>0.7524293618565423</v>
+        <v>0.392702009086122</v>
       </c>
       <c r="D5">
-        <v>0.007904216228569627</v>
+        <v>0.05464779058048208</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.42014288569375</v>
+        <v>3.144725662258395</v>
       </c>
       <c r="G5">
-        <v>0.0008177365399645119</v>
+        <v>0.002555411089922224</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09570602867907496</v>
+        <v>0.1997429023989454</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7054185573737826</v>
+        <v>0.607622376754037</v>
       </c>
       <c r="N5">
-        <v>1.31139354600613</v>
+        <v>2.163130167556652</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.822073576464334</v>
+        <v>1.788167857204655</v>
       </c>
       <c r="C6">
-        <v>0.7468254173834339</v>
+        <v>0.3913479798583523</v>
       </c>
       <c r="D6">
-        <v>0.007880664904478585</v>
+        <v>0.05464408804617493</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.410275573193843</v>
+        <v>3.143112123137996</v>
       </c>
       <c r="G6">
-        <v>0.0008181698929468811</v>
+        <v>0.002555688474813567</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09549407277499</v>
+        <v>0.1997452186317759</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7006827179642769</v>
+        <v>0.6066083716073862</v>
       </c>
       <c r="N6">
-        <v>1.312843746314698</v>
+        <v>2.163722650142475</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.963867300544678</v>
+        <v>1.821598972499771</v>
       </c>
       <c r="C7">
-        <v>0.7858473184126353</v>
+        <v>0.4007714686961492</v>
       </c>
       <c r="D7">
-        <v>0.008045382503629073</v>
+        <v>0.0546700206970544</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.479273328348228</v>
+        <v>3.154476118170606</v>
       </c>
       <c r="G7">
-        <v>0.0008151762259854374</v>
+        <v>0.002553780557831358</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09698035889521606</v>
+        <v>0.1997365925266266</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7336719189153129</v>
+        <v>0.613683541149399</v>
       </c>
       <c r="N7">
-        <v>1.302951754980569</v>
+        <v>2.159670763426931</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.602506489588279</v>
+        <v>1.971956947317949</v>
       </c>
       <c r="C8">
-        <v>0.9615463916485112</v>
+        <v>0.4429810241281871</v>
       </c>
       <c r="D8">
-        <v>0.008808569670457289</v>
+        <v>0.05479025930429438</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.797474981290151</v>
+        <v>3.208705196551989</v>
       </c>
       <c r="G8">
-        <v>0.0008023031615160748</v>
+        <v>0.002545791568234805</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1039383267000602</v>
+        <v>0.1998831017278135</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8824930312443371</v>
+        <v>0.6458207580056268</v>
       </c>
       <c r="N8">
-        <v>1.263840020159563</v>
+        <v>2.143294912455517</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.917501135768418</v>
+        <v>2.277191495271154</v>
       </c>
       <c r="C9">
-        <v>1.323360363623237</v>
+        <v>0.5280656699717383</v>
       </c>
       <c r="D9">
-        <v>0.01049860641980754</v>
+        <v>0.05504731160352505</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.483538852247705</v>
+        <v>3.329898514897252</v>
       </c>
       <c r="G9">
-        <v>0.0007780983184552104</v>
+        <v>0.002531659508293089</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1193029603484419</v>
+        <v>0.2008359734125307</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.189770089133674</v>
+        <v>0.7121752512898354</v>
       </c>
       <c r="N9">
-        <v>1.206020530067818</v>
+        <v>2.116636350198547</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.939860075357103</v>
+        <v>2.507997490032778</v>
       </c>
       <c r="C10">
-        <v>1.604967519553384</v>
+        <v>0.5920547887501471</v>
       </c>
       <c r="D10">
-        <v>0.01193272575431353</v>
+        <v>0.0552495756243252</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.039646379002107</v>
+        <v>3.42817777014352</v>
       </c>
       <c r="G10">
-        <v>0.0007607563539670258</v>
+        <v>0.002522200658512144</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.131956462403835</v>
+        <v>0.2019443304191171</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.429153190257665</v>
+        <v>0.7630049846874556</v>
       </c>
       <c r="N10">
-        <v>1.177912607225011</v>
+        <v>2.100420355881795</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.421988403460205</v>
+        <v>2.614469513131496</v>
       </c>
       <c r="C11">
-        <v>1.737915912628921</v>
+        <v>0.6215012849884829</v>
       </c>
       <c r="D11">
-        <v>0.01264813644048568</v>
+        <v>0.05534460768776217</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.307736407020798</v>
+        <v>3.47493519891313</v>
       </c>
       <c r="G11">
-        <v>0.000752911946901013</v>
+        <v>0.002518095777017925</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1380932632303029</v>
+        <v>0.2025377975353209</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.542137862205237</v>
+        <v>0.7865909407960601</v>
       </c>
       <c r="N11">
-        <v>1.169015894266678</v>
+        <v>2.093784926428228</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.607489461454634</v>
+        <v>2.655003745865372</v>
       </c>
       <c r="C12">
-        <v>1.789097660043524</v>
+        <v>0.6327015756172614</v>
       </c>
       <c r="D12">
-        <v>0.01293033571303226</v>
+        <v>0.05538103700890162</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.411807323788793</v>
+        <v>3.492938951279285</v>
       </c>
       <c r="G12">
-        <v>0.0007499428413146564</v>
+        <v>0.002516569649551062</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1404801655089187</v>
+        <v>0.2027754092559348</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.585621808339837</v>
+        <v>0.7955897148610944</v>
       </c>
       <c r="N12">
-        <v>1.166283734814499</v>
+        <v>2.091379698657875</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.567399751910273</v>
+        <v>2.646264334059367</v>
       </c>
       <c r="C13">
-        <v>1.77803503324202</v>
+        <v>0.6302871730186439</v>
       </c>
       <c r="D13">
-        <v>0.01286901655462025</v>
+        <v>0.05537317147492415</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.389273647850615</v>
+        <v>3.489048231393895</v>
       </c>
       <c r="G13">
-        <v>0.0007505823174203359</v>
+        <v>0.002516897072370334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1399631539750246</v>
+        <v>0.2027236618620734</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.576223702844061</v>
+        <v>0.7936486645299681</v>
       </c>
       <c r="N13">
-        <v>1.166842456782433</v>
+        <v>2.091892914000354</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.437187961331745</v>
+        <v>2.617799949750975</v>
       </c>
       <c r="C14">
-        <v>1.742109000337223</v>
+        <v>0.6224217409150015</v>
       </c>
       <c r="D14">
-        <v>0.01267111250612962</v>
+        <v>0.05534759582725535</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.316244872508918</v>
+        <v>3.476410394240219</v>
       </c>
       <c r="G14">
-        <v>0.0007526676802879611</v>
+        <v>0.002517969655270969</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1382883197456195</v>
+        <v>0.2025570876445641</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.545700599714706</v>
+        <v>0.7873299229817974</v>
       </c>
       <c r="N14">
-        <v>1.168777864549014</v>
+        <v>2.093584888120276</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.357826485878718</v>
+        <v>2.600392863628883</v>
       </c>
       <c r="C15">
-        <v>1.7202168508569</v>
+        <v>0.6176104186321822</v>
       </c>
       <c r="D15">
-        <v>0.01255143456128482</v>
+        <v>0.05533198791774963</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.271857121094342</v>
+        <v>3.468708216653567</v>
       </c>
       <c r="G15">
-        <v>0.0007539450454940843</v>
+        <v>0.002518630323934583</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1372709119914219</v>
+        <v>0.2024567345623893</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.52709897027313</v>
+        <v>0.7834682938936623</v>
       </c>
       <c r="N15">
-        <v>1.170048812263644</v>
+        <v>2.094635292209745</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.908734083358752</v>
+        <v>2.501069287353118</v>
       </c>
       <c r="C16">
-        <v>1.596387995399311</v>
+        <v>0.5901372683450745</v>
       </c>
       <c r="D16">
-        <v>0.01188742039536267</v>
+        <v>0.05524342654921721</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.022461117345841</v>
+        <v>3.425163561314974</v>
       </c>
       <c r="G16">
-        <v>0.0007612694907036548</v>
+        <v>0.002522472891843932</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1315637476879985</v>
+        <v>0.201907345818654</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.421860749988156</v>
+        <v>0.7614729656436765</v>
       </c>
       <c r="N16">
-        <v>1.178578638745577</v>
+        <v>2.10086898755614</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.637914355639566</v>
+        <v>2.440518071673409</v>
       </c>
       <c r="C17">
-        <v>1.521756614410208</v>
+        <v>0.5733705378793843</v>
       </c>
       <c r="D17">
-        <v>0.01149765897697047</v>
+        <v>0.05518987657272167</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.873586052586916</v>
+        <v>3.398977409752348</v>
       </c>
       <c r="G17">
-        <v>0.0007657708877259643</v>
+        <v>0.002524880773714032</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.128165590751955</v>
+        <v>0.2015932070125501</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.358421326944224</v>
+        <v>0.7480986653817752</v>
       </c>
       <c r="N17">
-        <v>1.184858941106597</v>
+        <v>2.104883636630902</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.483718371582711</v>
+        <v>2.405829463066027</v>
       </c>
       <c r="C18">
-        <v>1.479276904918834</v>
+        <v>0.5637584660235007</v>
       </c>
       <c r="D18">
-        <v>0.01127925371872068</v>
+        <v>0.05515935988132092</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.789353798250914</v>
+        <v>3.384108573999271</v>
       </c>
       <c r="G18">
-        <v>0.0007683645061092332</v>
+        <v>0.002526284370176102</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1262463249978936</v>
+        <v>0.2014209226129893</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.322309833291854</v>
+        <v>0.7404496843532797</v>
       </c>
       <c r="N18">
-        <v>1.188832007916261</v>
+        <v>2.107262479430389</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.431766977305074</v>
+        <v>2.394108248382565</v>
       </c>
       <c r="C19">
-        <v>1.464966738392775</v>
+        <v>0.5605093992342631</v>
       </c>
       <c r="D19">
-        <v>0.01120623658628844</v>
+        <v>0.05514907595836016</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.761063549149014</v>
+        <v>3.379107255943012</v>
       </c>
       <c r="G19">
-        <v>0.000769243579345158</v>
+        <v>0.002526762811454221</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1256023190017785</v>
+        <v>0.2013640315244842</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.310144774921469</v>
+        <v>0.73786733265203</v>
       </c>
       <c r="N19">
-        <v>1.190237027970696</v>
+        <v>2.108079863490261</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.666577626643061</v>
+        <v>2.446949458888753</v>
       </c>
       <c r="C20">
-        <v>1.529654117927976</v>
+        <v>0.5751520960790231</v>
       </c>
       <c r="D20">
-        <v>0.01153853731786519</v>
+        <v>0.0551955476242294</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.889286954666346</v>
+        <v>3.40174500037034</v>
       </c>
       <c r="G20">
-        <v>0.0007652912707931359</v>
+        <v>0.002524622521862196</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1285236246344468</v>
+        <v>0.201625777966342</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.36513477463096</v>
+        <v>0.74951786910934</v>
       </c>
       <c r="N20">
-        <v>1.184152529046671</v>
+        <v>2.104449048104641</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.475350620045958</v>
+        <v>2.626154752813306</v>
       </c>
       <c r="C21">
-        <v>1.752637391597773</v>
+        <v>0.6247306563194002</v>
       </c>
       <c r="D21">
-        <v>0.01272891531493781</v>
+        <v>0.05535509593069921</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.337622640745394</v>
+        <v>3.480114329025696</v>
       </c>
       <c r="G21">
-        <v>0.0007520551645093671</v>
+        <v>0.002517653844948052</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.138778475957821</v>
+        <v>0.2026056646690293</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.554646024824422</v>
+        <v>0.7891840590474146</v>
       </c>
       <c r="N21">
-        <v>1.168191422673317</v>
+        <v>2.093084990758186</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.021287272531652</v>
+        <v>2.74453390664064</v>
       </c>
       <c r="C22">
-        <v>1.903332227463636</v>
+        <v>0.6574223596741717</v>
       </c>
       <c r="D22">
-        <v>0.01357408363789814</v>
+        <v>0.05546195479217242</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.6457280036893</v>
+        <v>3.533070031476399</v>
       </c>
       <c r="G22">
-        <v>0.0007434098331317824</v>
+        <v>0.002513264300321357</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1458528437853488</v>
+        <v>0.2033211640025243</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.682642939932308</v>
+        <v>0.815500714958219</v>
       </c>
       <c r="N22">
-        <v>1.161517750823904</v>
+        <v>2.086284723976306</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.728143449587378</v>
+        <v>2.681236540002658</v>
       </c>
       <c r="C23">
-        <v>1.822396642577587</v>
+        <v>0.6399473782400378</v>
       </c>
       <c r="D23">
-        <v>0.0131159921766526</v>
+        <v>0.05540468283349376</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.47976377869071</v>
+        <v>3.504646657351515</v>
       </c>
       <c r="G23">
-        <v>0.0007480254032519537</v>
+        <v>0.00251559205138177</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1420399653378084</v>
+        <v>0.2029324039523388</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.613908052796617</v>
+        <v>0.8014188803649915</v>
       </c>
       <c r="N23">
-        <v>1.164706633777143</v>
+        <v>2.089856512316473</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.653614318802852</v>
+        <v>2.44404144556313</v>
       </c>
       <c r="C24">
-        <v>1.526082337286709</v>
+        <v>0.5743465685197293</v>
       </c>
       <c r="D24">
-        <v>0.01152003870871326</v>
+        <v>0.05519298290176011</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.882184374673386</v>
+        <v>3.40049319374134</v>
       </c>
       <c r="G24">
-        <v>0.000765508087606294</v>
+        <v>0.002524739217460048</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1283616510387873</v>
+        <v>0.2016110267320315</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.362098509665927</v>
+        <v>0.7488761223067399</v>
       </c>
       <c r="N24">
-        <v>1.184470774725639</v>
+        <v>2.104645305217772</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.553338497159416</v>
+        <v>2.193483348231837</v>
       </c>
       <c r="C25">
-        <v>1.223132665513162</v>
+        <v>0.504793554893979</v>
       </c>
       <c r="D25">
-        <v>0.01001379851997997</v>
+        <v>0.05497545129032089</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.289943601595468</v>
+        <v>3.295503705877252</v>
       </c>
       <c r="G25">
-        <v>0.0007845534591375269</v>
+        <v>0.002535319524473712</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1149320972857026</v>
+        <v>0.2005066856343021</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.104589610975601</v>
+        <v>0.6938629398850296</v>
       </c>
       <c r="N25">
-        <v>1.219369687281443</v>
+        <v>2.123259667674205</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_145/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.013391040896522</v>
+        <v>3.779195367579689</v>
       </c>
       <c r="C2">
-        <v>0.4545716620954181</v>
+        <v>1.010150009431811</v>
       </c>
       <c r="D2">
-        <v>0.0548242614504082</v>
+        <v>0.009026117987196325</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.224396755779395</v>
+        <v>2.887429256937111</v>
       </c>
       <c r="G2">
-        <v>0.002543731212099035</v>
+        <v>0.000798891832743283</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1999677489458449</v>
+        <v>0.1059296383583046</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6547522193246067</v>
+        <v>0.923723503708807</v>
       </c>
       <c r="N2">
-        <v>2.13922535829785</v>
+        <v>1.25442743093997</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.894004493856016</v>
+        <v>3.271058659442645</v>
       </c>
       <c r="C3">
-        <v>0.4211297235562483</v>
+        <v>0.8703679204346315</v>
       </c>
       <c r="D3">
-        <v>0.05472724908364168</v>
+        <v>0.008408046006978087</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.180009302102007</v>
+        <v>2.630896507905106</v>
       </c>
       <c r="G3">
-        <v>0.002549823428066786</v>
+        <v>0.0008088691082870593</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.199772679028726</v>
+        <v>0.100276973539124</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6291005810636818</v>
+        <v>0.8052120177548474</v>
       </c>
       <c r="N3">
-        <v>2.151440602265737</v>
+        <v>1.283087263279796</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.821991698144018</v>
+        <v>2.9655328586677</v>
       </c>
       <c r="C4">
-        <v>0.4008820743332251</v>
+        <v>0.7863056435357407</v>
       </c>
       <c r="D4">
-        <v>0.05467032729818411</v>
+        <v>0.008047327248766001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.154611315949396</v>
+        <v>2.480087664086938</v>
       </c>
       <c r="G4">
-        <v>0.002553758468885161</v>
+        <v>0.0008151413883447133</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1997365924836103</v>
+        <v>0.09699795673434153</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6137668284747875</v>
+        <v>0.7340595508462329</v>
       </c>
       <c r="N4">
-        <v>2.159624172293071</v>
+        <v>1.302838383526776</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.792967871958126</v>
+        <v>2.842435006365008</v>
       </c>
       <c r="C5">
-        <v>0.392702009086122</v>
+        <v>0.7524293618563718</v>
       </c>
       <c r="D5">
-        <v>0.05464779058048208</v>
+        <v>0.007904216228343919</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.144725662258395</v>
+        <v>2.420142885693707</v>
       </c>
       <c r="G5">
-        <v>0.002555411089922224</v>
+        <v>0.0008177365398532423</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1997429023989454</v>
+        <v>0.09570602867900391</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.607622376754037</v>
+        <v>0.7054185573737897</v>
       </c>
       <c r="N5">
-        <v>2.163130167556652</v>
+        <v>1.311393546006101</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.788167857204655</v>
+        <v>2.822073576464277</v>
       </c>
       <c r="C6">
-        <v>0.3913479798583523</v>
+        <v>0.7468254173834907</v>
       </c>
       <c r="D6">
-        <v>0.05464408804617493</v>
+        <v>0.007880664904505119</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.143112123137996</v>
+        <v>2.410275573193829</v>
       </c>
       <c r="G6">
-        <v>0.002555688474813567</v>
+        <v>0.0008181698929494158</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1997452186317759</v>
+        <v>0.09549407277508237</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6066083716073862</v>
+        <v>0.7006827179642983</v>
       </c>
       <c r="N6">
-        <v>2.163722650142475</v>
+        <v>1.312843746314641</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.821598972499771</v>
+        <v>2.963867300544564</v>
       </c>
       <c r="C7">
-        <v>0.4007714686961492</v>
+        <v>0.7858473184126638</v>
       </c>
       <c r="D7">
-        <v>0.0546700206970544</v>
+        <v>0.008045382503753418</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.154476118170606</v>
+        <v>2.479273328348214</v>
       </c>
       <c r="G7">
-        <v>0.002553780557831358</v>
+        <v>0.0008151762259330113</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1997365925266266</v>
+        <v>0.09698035889511658</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.613683541149399</v>
+        <v>0.73367191891532</v>
       </c>
       <c r="N7">
-        <v>2.159670763426931</v>
+        <v>1.302951754980498</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.971956947317949</v>
+        <v>3.602506489588393</v>
       </c>
       <c r="C8">
-        <v>0.4429810241281871</v>
+        <v>0.9615463916483122</v>
       </c>
       <c r="D8">
-        <v>0.05479025930429438</v>
+        <v>0.008808569670466171</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.208705196551989</v>
+        <v>2.797474981290122</v>
       </c>
       <c r="G8">
-        <v>0.002545791568234805</v>
+        <v>0.0008023031616341922</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1998831017278135</v>
+        <v>0.1039383267001313</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6458207580056268</v>
+        <v>0.88249303124433</v>
       </c>
       <c r="N8">
-        <v>2.143294912455517</v>
+        <v>1.263840020159577</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.277191495271154</v>
+        <v>4.917501135768418</v>
       </c>
       <c r="C9">
-        <v>0.5280656699717383</v>
+        <v>1.323360363623181</v>
       </c>
       <c r="D9">
-        <v>0.05504731160352505</v>
+        <v>0.01049860641958267</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.329898514897252</v>
+        <v>3.483538852247676</v>
       </c>
       <c r="G9">
-        <v>0.002531659508293089</v>
+        <v>0.0007780983185819137</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2008359734125307</v>
+        <v>0.1193029603484348</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7121752512898354</v>
+        <v>1.189770089133646</v>
       </c>
       <c r="N9">
-        <v>2.116636350198547</v>
+        <v>1.20602053006786</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.507997490032778</v>
+        <v>5.93986007535716</v>
       </c>
       <c r="C10">
-        <v>0.5920547887501471</v>
+        <v>1.604967519553384</v>
       </c>
       <c r="D10">
-        <v>0.0552495756243252</v>
+        <v>0.01193272575402476</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.42817777014352</v>
+        <v>4.039646379002079</v>
       </c>
       <c r="G10">
-        <v>0.002522200658512144</v>
+        <v>0.0007607563539660539</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2019443304191171</v>
+        <v>0.1319564624038279</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7630049846874556</v>
+        <v>1.429153190257651</v>
       </c>
       <c r="N10">
-        <v>2.100420355881795</v>
+        <v>1.177912607224954</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.614469513131496</v>
+        <v>6.421988403460318</v>
       </c>
       <c r="C11">
-        <v>0.6215012849884829</v>
+        <v>1.737915912629262</v>
       </c>
       <c r="D11">
-        <v>0.05534460768776217</v>
+        <v>0.01264813644084684</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.47493519891313</v>
+        <v>4.307736407020798</v>
       </c>
       <c r="G11">
-        <v>0.002518095777017925</v>
+        <v>0.0007529119469715795</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2025377975353209</v>
+        <v>0.1380932632303669</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7865909407960601</v>
+        <v>1.542137862205237</v>
       </c>
       <c r="N11">
-        <v>2.093784926428228</v>
+        <v>1.169015894266664</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.655003745865372</v>
+        <v>6.607489461454861</v>
       </c>
       <c r="C12">
-        <v>0.6327015756172614</v>
+        <v>1.789097660043353</v>
       </c>
       <c r="D12">
-        <v>0.05538103700890162</v>
+        <v>0.01293033571295943</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.492938951279285</v>
+        <v>4.411807323788793</v>
       </c>
       <c r="G12">
-        <v>0.002516569649551062</v>
+        <v>0.0007499428412594623</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2027754092559348</v>
+        <v>0.1404801655089969</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7955897148610944</v>
+        <v>1.585621808339823</v>
       </c>
       <c r="N12">
-        <v>2.091379698657875</v>
+        <v>1.166283734814456</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.646264334059367</v>
+        <v>6.56739975191033</v>
       </c>
       <c r="C13">
-        <v>0.6302871730186439</v>
+        <v>1.778035033241565</v>
       </c>
       <c r="D13">
-        <v>0.05537317147492415</v>
+        <v>0.01286901655461892</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.489048231393895</v>
+        <v>4.389273647850615</v>
       </c>
       <c r="G13">
-        <v>0.002516897072370334</v>
+        <v>0.0007505823175491812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2027236618620734</v>
+        <v>0.1399631539749109</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7936486645299681</v>
+        <v>1.576223702844061</v>
       </c>
       <c r="N13">
-        <v>2.091892914000354</v>
+        <v>1.166842456782447</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.617799949750975</v>
+        <v>6.437187961331631</v>
       </c>
       <c r="C14">
-        <v>0.6224217409150015</v>
+        <v>1.742109000337166</v>
       </c>
       <c r="D14">
-        <v>0.05534759582725535</v>
+        <v>0.01267111250589914</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.476410394240219</v>
+        <v>4.316244872508918</v>
       </c>
       <c r="G14">
-        <v>0.002517969655270969</v>
+        <v>0.0007526676803035656</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2025570876445641</v>
+        <v>0.1382883197455982</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7873299229817974</v>
+        <v>1.545700599714692</v>
       </c>
       <c r="N14">
-        <v>2.093584888120276</v>
+        <v>1.168777864549028</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.600392863628883</v>
+        <v>6.357826485878832</v>
       </c>
       <c r="C15">
-        <v>0.6176104186321822</v>
+        <v>1.720216850856673</v>
       </c>
       <c r="D15">
-        <v>0.05533198791774963</v>
+        <v>0.01255143456128349</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.468708216653567</v>
+        <v>4.271857121094342</v>
       </c>
       <c r="G15">
-        <v>0.002518630323934583</v>
+        <v>0.0007539450454217346</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2024567345623893</v>
+        <v>0.1372709119915001</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7834682938936623</v>
+        <v>1.527098970273144</v>
       </c>
       <c r="N15">
-        <v>2.094635292209745</v>
+        <v>1.170048812263715</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.501069287353118</v>
+        <v>5.908734083358752</v>
       </c>
       <c r="C16">
-        <v>0.5901372683450745</v>
+        <v>1.596387995399084</v>
       </c>
       <c r="D16">
-        <v>0.05524342654921721</v>
+        <v>0.01188742039514301</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.425163561314974</v>
+        <v>4.022461117345813</v>
       </c>
       <c r="G16">
-        <v>0.002522472891843932</v>
+        <v>0.0007612694906497281</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.201907345818654</v>
+        <v>0.1315637476880269</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7614729656436765</v>
+        <v>1.421860749988127</v>
       </c>
       <c r="N16">
-        <v>2.10086898755614</v>
+        <v>1.178578638745563</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.440518071673409</v>
+        <v>5.637914355639339</v>
       </c>
       <c r="C17">
-        <v>0.5733705378793843</v>
+        <v>1.521756614410208</v>
       </c>
       <c r="D17">
-        <v>0.05518987657272167</v>
+        <v>0.01149765897727734</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.398977409752348</v>
+        <v>3.873586052586944</v>
       </c>
       <c r="G17">
-        <v>0.002524880773714032</v>
+        <v>0.0007657708877811752</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2015932070125501</v>
+        <v>0.1281655907519408</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7480986653817752</v>
+        <v>1.35842132694421</v>
       </c>
       <c r="N17">
-        <v>2.104883636630902</v>
+        <v>1.184858941106597</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.405829463066027</v>
+        <v>5.483718371582825</v>
       </c>
       <c r="C18">
-        <v>0.5637584660235007</v>
+        <v>1.479276904919345</v>
       </c>
       <c r="D18">
-        <v>0.05515935988132092</v>
+        <v>0.01127925371885741</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.384108573999271</v>
+        <v>3.789353798250914</v>
       </c>
       <c r="G18">
-        <v>0.002526284370176102</v>
+        <v>0.000768364506109722</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2014209226129893</v>
+        <v>0.1262463249978367</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7404496843532797</v>
+        <v>1.32230983329184</v>
       </c>
       <c r="N18">
-        <v>2.107262479430389</v>
+        <v>1.188832007916261</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.394108248382565</v>
+        <v>5.431766977305074</v>
       </c>
       <c r="C19">
-        <v>0.5605093992342631</v>
+        <v>1.46496673839232</v>
       </c>
       <c r="D19">
-        <v>0.05514907595836016</v>
+        <v>0.01120623658605396</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.379107255943012</v>
+        <v>3.761063549149014</v>
       </c>
       <c r="G19">
-        <v>0.002526762811454221</v>
+        <v>0.0007692435793435917</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2013640315244842</v>
+        <v>0.1256023190016364</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.73786733265203</v>
+        <v>1.310144774921497</v>
       </c>
       <c r="N19">
-        <v>2.108079863490261</v>
+        <v>1.190237027970653</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.446949458888753</v>
+        <v>5.666577626642834</v>
       </c>
       <c r="C20">
-        <v>0.5751520960790231</v>
+        <v>1.529654117927691</v>
       </c>
       <c r="D20">
-        <v>0.0551955476242294</v>
+        <v>0.01153853731777182</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.40174500037034</v>
+        <v>3.889286954666346</v>
       </c>
       <c r="G20">
-        <v>0.002524622521862196</v>
+        <v>0.0007652912708615257</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.201625777966342</v>
+        <v>0.1285236246346315</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.74951786910934</v>
+        <v>1.36513477463096</v>
       </c>
       <c r="N20">
-        <v>2.104449048104641</v>
+        <v>1.184152529046628</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.626154752813306</v>
+        <v>6.475350620046243</v>
       </c>
       <c r="C21">
-        <v>0.6247306563194002</v>
+        <v>1.752637391597773</v>
       </c>
       <c r="D21">
-        <v>0.05535509593069921</v>
+        <v>0.01272891531515374</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.480114329025696</v>
+        <v>4.337622640745394</v>
       </c>
       <c r="G21">
-        <v>0.002517653844948052</v>
+        <v>0.0007520551646371151</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2026056646690293</v>
+        <v>0.1387784759577357</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7891840590474146</v>
+        <v>1.554646024824407</v>
       </c>
       <c r="N21">
-        <v>2.093084990758186</v>
+        <v>1.168191422673246</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.74453390664064</v>
+        <v>7.021287272531822</v>
       </c>
       <c r="C22">
-        <v>0.6574223596741717</v>
+        <v>1.903332227463807</v>
       </c>
       <c r="D22">
-        <v>0.05546195479217242</v>
+        <v>0.01357408363745316</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.533070031476399</v>
+        <v>4.645728003689271</v>
       </c>
       <c r="G22">
-        <v>0.002513264300321357</v>
+        <v>0.0007434098331518015</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2033211640025243</v>
+        <v>0.1458528437854341</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.815500714958219</v>
+        <v>1.682642939932322</v>
       </c>
       <c r="N22">
-        <v>2.086284723976306</v>
+        <v>1.161517750823904</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.681236540002658</v>
+        <v>6.728143449587151</v>
       </c>
       <c r="C23">
-        <v>0.6399473782400378</v>
+        <v>1.822396642577644</v>
       </c>
       <c r="D23">
-        <v>0.05540468283349376</v>
+        <v>0.01311599217686554</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.504646657351515</v>
+        <v>4.479763778690739</v>
       </c>
       <c r="G23">
-        <v>0.00251559205138177</v>
+        <v>0.0007480254032501929</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2029324039523388</v>
+        <v>0.1420399653378794</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8014188803649915</v>
+        <v>1.613908052796617</v>
       </c>
       <c r="N23">
-        <v>2.089856512316473</v>
+        <v>1.164706633777072</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.44404144556313</v>
+        <v>5.653614318802738</v>
       </c>
       <c r="C24">
-        <v>0.5743465685197293</v>
+        <v>1.526082337287164</v>
       </c>
       <c r="D24">
-        <v>0.05519298290176011</v>
+        <v>0.01152003870894847</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.40049319374134</v>
+        <v>3.882184374673386</v>
       </c>
       <c r="G24">
-        <v>0.002524739217460048</v>
+        <v>0.0007655080874694741</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2016110267320315</v>
+        <v>0.1283616510386878</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7488761223067399</v>
+        <v>1.362098509665927</v>
       </c>
       <c r="N24">
-        <v>2.104645305217772</v>
+        <v>1.184470774725639</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.193483348231837</v>
+        <v>4.553338497159416</v>
       </c>
       <c r="C25">
-        <v>0.504793554893979</v>
+        <v>1.223132665513162</v>
       </c>
       <c r="D25">
-        <v>0.05497545129032089</v>
+        <v>0.01001379851996786</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.295503705877252</v>
+        <v>3.289943601595468</v>
       </c>
       <c r="G25">
-        <v>0.002535319524473712</v>
+        <v>0.0007845534591379759</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2005066856343021</v>
+        <v>0.1149320972856458</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6938629398850296</v>
+        <v>1.104589610975644</v>
       </c>
       <c r="N25">
-        <v>2.123259667674205</v>
+        <v>1.219369687281429</v>
       </c>
       <c r="O25">
         <v>0</v>
